--- a/myApp/staff_data.xlsx
+++ b/myApp/staff_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +439,11 @@
           <t>rafy</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>aymn</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -449,6 +454,11 @@
           <t>cheif</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -457,6 +467,9 @@
       <c r="B3" t="n">
         <v>5</v>
       </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -464,7 +477,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-11-15</t>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
         </is>
       </c>
     </row>
@@ -475,6 +493,11 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>rafaelnashat@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ayman@gmail.com</t>
         </is>
       </c>
     </row>
